--- a/public/files/import_format/student_import.xlsx
+++ b/public/files/import_format/student_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24230" windowHeight="12350"/>
+    <workbookView windowWidth="14630" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>性別</t>
   </si>
   <si>
-    <t>法人名</t>
+    <t>法人</t>
   </si>
   <si>
     <t>パスワード</t>
@@ -43,11 +43,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,12 +95,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -102,32 +146,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,17 +200,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,74 +217,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,25 +247,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,25 +442,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,10 +473,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,8 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,30 +507,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,134 +559,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -689,6 +695,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1012,7 +1019,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1040,33 +1047,33 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/files/import_format/student_import.xlsx
+++ b/public/files/import_format/student_import.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>姓名</t>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>名</t>
   </si>
   <si>
     <t>ニックネーム</t>
@@ -28,13 +31,16 @@
     <t>生年月日</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性別(0:男子、1:女性、2:回答しない)</t>
   </si>
   <si>
     <t>法人</t>
   </si>
   <si>
     <t>パスワード</t>
+  </si>
+  <si>
+    <t>言語（ja:日本語、en:英語、zh:中国語）</t>
   </si>
 </sst>
 </file>
@@ -47,7 +53,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,27 +63,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Open Sans"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="SimSun"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
-      <charset val="134"/>
+      <name val="SimSun"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -86,6 +92,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,15 +124,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,37 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,8 +159,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,11 +206,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,11 +222,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,24 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +260,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,91 +380,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,61 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,30 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,7 +488,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,18 +545,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,144 +572,146 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,32 +1031,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="26.1818181818182" customWidth="1"/>
-    <col min="2" max="3" width="23.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="13.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="19.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="16.1636363636364" customWidth="1"/>
+    <col min="2" max="2" width="20.6636363636364" customWidth="1"/>
+    <col min="3" max="4" width="23.8363636363636" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="40.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.3636363636364" customWidth="1"/>
+    <col min="9" max="9" width="37.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1050,30 +1068,42 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6"/>
+    <row r="3" spans="2:2">
+      <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6"/>
+    <row r="4" spans="2:2">
+      <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+    <row r="5" spans="2:4">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6"/>
+    <row r="6" spans="2:2">
+      <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6"/>
+    <row r="7" spans="2:2">
+      <c r="B7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/files/import_format/student_import.xlsx
+++ b/public/files/import_format/student_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhtm/develop/workspace/vinayama/tij/tij-admin/public/files/import_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D58C539-5CEA-9D4B-8F7D-117812B8AB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F93818-ABD0-C649-80E6-83CB9D40847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>性別(0:男子、1:女性、2:回答しない)</t>
   </si>
   <si>
-    <t>法人</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -53,90 +50,60 @@
     <rPh sb="0" eb="2">
       <t>ヤマ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>太郎</t>
     <rPh sb="0" eb="2">
       <t>タロウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>たろちゃん</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>sample@gmail.com</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1900/01/01</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>株式会社サンプル</t>
     <rPh sb="0" eb="4">
       <t>カブ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>a12345678</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ja</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>法人名</t>
+    <rPh sb="0" eb="3">
+      <t>ホウジn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,38 +115,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,26 +180,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -483,21 +490,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="4" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="40.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,70 +522,680 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
+      <c r="A3" s="7"/>
       <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4" s="7"/>
       <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6" s="7"/>
       <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" s="7"/>
       <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FFA334F5-39D6-984A-A7BF-460975B02153}"/>
   </hyperlinks>

--- a/public/files/import_format/student_import.xlsx
+++ b/public/files/import_format/student_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhtm/develop/workspace/vinayama/tij/tij-admin/public/files/import_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F93818-ABD0-C649-80E6-83CB9D40847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C070AFD-FCA2-174D-8348-7A70CF14A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>生年月日</t>
   </si>
   <si>
-    <t>性別(0:男子、1:女性、2:回答しない)</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -91,6 +88,10 @@
     <rPh sb="0" eb="3">
       <t>ホウジn</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別(0:男性、1:女性、2:回答しない)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -205,15 +206,15 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -492,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -513,686 +514,686 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/public/files/import_format/student_import.xlsx
+++ b/public/files/import_format/student_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhtm/develop/workspace/vinayama/tij/tij-admin/public/files/import_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C070AFD-FCA2-174D-8348-7A70CF14A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34902B-4B49-FE43-8A3D-7158641B4E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,16 +205,16 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -494,706 +494,707 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/public/files/import_format/student_import.xlsx
+++ b/public/files/import_format/student_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhtm/develop/workspace/vinayama/tij/tij-admin/public/files/import_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34902B-4B49-FE43-8A3D-7158641B4E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F3507-5609-1D47-85A7-48D82436F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,6 +215,10 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -494,7 +498,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -503,7 +507,7 @@
     <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="12" customWidth="1"/>
     <col min="6" max="6" width="40.83203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="32.33203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="4" customWidth="1"/>
@@ -524,7 +528,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -553,7 +557,7 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1">
@@ -574,7 +578,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -585,7 +589,7 @@
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -596,7 +600,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -607,7 +611,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -618,7 +622,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -629,7 +633,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -640,7 +644,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -651,7 +655,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -662,7 +666,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -673,7 +677,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -684,7 +688,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -695,7 +699,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -706,7 +710,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -717,7 +721,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -728,7 +732,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -739,7 +743,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -750,7 +754,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -761,7 +765,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -772,7 +776,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -783,7 +787,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -794,7 +798,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -805,7 +809,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -816,7 +820,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -827,7 +831,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -838,7 +842,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -849,7 +853,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -860,7 +864,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -871,7 +875,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -882,7 +886,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -893,7 +897,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -904,7 +908,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -915,7 +919,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -926,7 +930,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -937,7 +941,7 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -948,7 +952,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -959,7 +963,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -970,7 +974,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -981,7 +985,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -992,7 +996,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1003,7 +1007,7 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1014,7 +1018,7 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1025,7 +1029,7 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1036,7 +1040,7 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1047,7 +1051,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1058,7 +1062,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1069,7 +1073,7 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1080,7 +1084,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -1091,7 +1095,7 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -1102,7 +1106,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -1113,7 +1117,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1124,7 +1128,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -1135,7 +1139,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -1146,7 +1150,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -1157,7 +1161,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -1168,7 +1172,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -1179,7 +1183,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -1190,7 +1194,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>

--- a/public/files/import_format/student_import.xlsx
+++ b/public/files/import_format/student_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhtm/develop/workspace/vinayama/tij/tij-admin/public/files/import_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F3507-5609-1D47-85A7-48D82436F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA9A3CB-7028-294E-B493-9F23157CCC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,12 +145,12 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,22 +203,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -498,37 +497,37 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="16.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -554,10 +553,10 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1">
@@ -575,10 +574,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -586,10 +585,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -597,10 +596,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -608,10 +607,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -619,10 +618,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -633,7 +632,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -644,7 +643,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -655,7 +654,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -666,7 +665,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -677,7 +676,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -688,7 +687,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -699,7 +698,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -710,7 +709,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -721,7 +720,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -732,7 +731,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -743,7 +742,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -754,7 +753,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -765,7 +764,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -776,7 +775,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -787,7 +786,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -798,7 +797,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -809,7 +808,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -820,7 +819,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -831,7 +830,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -842,7 +841,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -853,7 +852,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -864,7 +863,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -875,7 +874,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -886,7 +885,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -897,7 +896,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -908,7 +907,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -919,7 +918,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -930,7 +929,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -941,7 +940,7 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -952,7 +951,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -963,7 +962,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -974,7 +973,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -985,7 +984,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -996,7 +995,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1007,7 +1006,7 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1018,7 +1017,7 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1029,7 +1028,7 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1040,7 +1039,7 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1051,7 +1050,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1062,7 +1061,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1073,7 +1072,7 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1084,7 +1083,7 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -1095,7 +1094,7 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -1106,7 +1105,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="11"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -1117,7 +1116,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="11"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1128,7 +1127,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -1139,7 +1138,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -1150,7 +1149,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="11"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -1161,7 +1160,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="11"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -1172,7 +1171,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -1183,7 +1182,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="11"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -1194,7 +1193,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
